--- a/biology/Zoologie/Argiope_anasuja/Argiope_anasuja.xlsx
+++ b/biology/Zoologie/Argiope_anasuja/Argiope_anasuja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope anasuja est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope anasuja est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Pakistan, en Inde, au Sri Lanka, aux Maldives, aux îles Cocos et aux Seychelles[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Pakistan, en Inde, au Sri Lanka, aux Maldives, aux îles Cocos et aux Seychelles,.
 </t>
         </is>
       </c>
@@ -542,43 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Argiope anasuja ♀ en haut, ♂, en bas
 La femelle reste au centre de sa  toile.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Argiope_anasuja</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argiope_anasuja</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alimentation
-Reproduction</t>
         </is>
       </c>
     </row>
